--- a/ClosedXML.Tests/Resource/Examples/Styles/StyleFont.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Styles/StyleFont.xlsx
@@ -546,7 +546,7 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="28.380625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="28.180625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:2">

--- a/ClosedXML.Tests/Resource/Examples/Styles/StyleFont.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Styles/StyleFont.xlsx
@@ -546,7 +546,7 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="28.530625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="27.350625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:2">

--- a/ClosedXML.Tests/Resource/Examples/Styles/StyleFont.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Styles/StyleFont.xlsx
@@ -546,7 +546,7 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="27.350625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="35.370625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:2">

--- a/ClosedXML.Tests/Resource/Examples/Styles/StyleFont.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Styles/StyleFont.xlsx
@@ -546,7 +546,7 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="35.370625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="37.010625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:2">

--- a/ClosedXML.Tests/Resource/Examples/Styles/StyleFont.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Styles/StyleFont.xlsx
@@ -546,7 +546,7 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="37.010625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="34.659063" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:2">

--- a/ClosedXML.Tests/Resource/Examples/Styles/StyleFont.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Styles/StyleFont.xlsx
@@ -546,7 +546,7 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="28.380625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="30.680625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:2">

--- a/ClosedXML.Tests/Resource/Examples/Styles/StyleFont.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Styles/StyleFont.xlsx
@@ -546,7 +546,7 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="30.680625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="28.420625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:2">

--- a/ClosedXML.Tests/Resource/Examples/Styles/StyleFont.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Styles/StyleFont.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>Bold</x:t>
   </x:si>
@@ -546,7 +546,7 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="28.420625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="32.282054" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:2">

--- a/ClosedXML.Tests/Resource/Examples/Styles/StyleFont.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Styles/StyleFont.xlsx
@@ -45,6 +45,9 @@
   <x:si>
     <x:t>VerticalAlignment - Superscript</x:t>
   </x:si>
+  <x:si>
+    <x:t>FontScheme - Major</x:t>
+  </x:si>
 </x:sst>
 </file>
 
@@ -53,7 +56,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="11">
+  <x:fonts count="12">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -135,6 +138,14 @@
       <x:color rgb="FF000000"/>
       <x:name val="Calibri"/>
       <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="major"/>
     </x:font>
   </x:fonts>
   <x:fills count="2">
@@ -164,7 +175,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="11">
+  <x:cellStyleXfs count="12">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -198,8 +209,11 @@
     <x:xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="11">
+  <x:cellXfs count="12">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -241,6 +255,10 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -539,7 +557,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B11"/>
+  <x:dimension ref="A1:B12"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -599,6 +617,11 @@
         <x:v>9</x:v>
       </x:c>
     </x:row>
+    <x:row r="12" spans="1:2">
+      <x:c r="B12" s="11" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/ClosedXML.Tests/Resource/Examples/Styles/StyleFont.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Styles/StyleFont.xlsx
@@ -553,7 +553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>

--- a/ClosedXML.Tests/Resource/Examples/Styles/StyleFont.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Styles/StyleFont.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Style Font" sheetId="2" r:id="rId2"/>
+    <x:sheet name="Style Font" sheetId="1" r:id="rId2"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
